--- a/VCB/CSTC.xlsx
+++ b/VCB/CSTC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN38"/>
+  <dimension ref="A1:BO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,11 @@
       <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Q1/2025</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
         </is>
       </c>
     </row>
@@ -836,6 +841,7 @@
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1038,6 +1044,9 @@
       <c r="BN3" t="n">
         <v>6037.9</v>
       </c>
+      <c r="BO3" t="n">
+        <v>5501.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1240,6 +1249,9 @@
       <c r="BN4" t="n">
         <v>24527.26</v>
       </c>
+      <c r="BO4" t="n">
+        <v>25581.35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1442,6 +1454,9 @@
       <c r="BN5" t="n">
         <v>10.6</v>
       </c>
+      <c r="BO5" t="n">
+        <v>10.36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1644,6 +1659,9 @@
       <c r="BN6" t="n">
         <v>2.61</v>
       </c>
+      <c r="BO6" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1664,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
@@ -1844,6 +1862,9 @@
         <v>0</v>
       </c>
       <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2047,6 +2068,9 @@
       </c>
       <c r="BN8" t="n">
         <v>0.62</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -2120,6 +2144,7 @@
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2322,6 +2347,9 @@
       <c r="BN10" t="n">
         <v>4.34</v>
       </c>
+      <c r="BO10" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2522,6 +2550,9 @@
         <v>0.43</v>
       </c>
       <c r="BN11" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BO11" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2722,6 +2753,9 @@
       <c r="BN12" t="n">
         <v>1.18</v>
       </c>
+      <c r="BO12" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2924,6 +2958,9 @@
       <c r="BN13" t="n">
         <v>0.58</v>
       </c>
+      <c r="BO13" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3126,6 +3163,9 @@
       <c r="BN14" t="n">
         <v>0.66</v>
       </c>
+      <c r="BO14" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3327,6 +3367,9 @@
       </c>
       <c r="BN15" t="n">
         <v>32.74</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>33.72</v>
       </c>
     </row>
     <row r="16">
@@ -3434,6 +3477,9 @@
       <c r="BN16" t="n">
         <v>17.51</v>
       </c>
+      <c r="BO16" t="n">
+        <v>17.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3539,6 +3585,9 @@
       </c>
       <c r="BN17" t="n">
         <v>1.69</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="18">
@@ -3612,6 +3661,7 @@
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3804,6 +3854,9 @@
       <c r="BN19" t="n">
         <v>1.32</v>
       </c>
+      <c r="BO19" t="n">
+        <v>9.07</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3995,6 +4048,9 @@
       </c>
       <c r="BN20" t="n">
         <v>1.35</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>8.77</v>
       </c>
     </row>
     <row r="21">
@@ -4188,6 +4244,9 @@
       <c r="BN21" t="n">
         <v>18.92</v>
       </c>
+      <c r="BO21" t="n">
+        <v>16.39</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4380,6 +4439,9 @@
       <c r="BN22" t="n">
         <v>18.04</v>
       </c>
+      <c r="BO22" t="n">
+        <v>17.64</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4562,6 +4624,9 @@
       <c r="BN23" t="n">
         <v>49.5</v>
       </c>
+      <c r="BO23" t="n">
+        <v>49.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4764,6 +4829,9 @@
       <c r="BN24" t="n">
         <v>15.78</v>
       </c>
+      <c r="BO24" t="n">
+        <v>13.59</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4966,6 +5034,9 @@
       <c r="BN25" t="n">
         <v>12.01</v>
       </c>
+      <c r="BO25" t="n">
+        <v>15.42</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5168,6 +5239,9 @@
       <c r="BN26" t="n">
         <v>-2.78</v>
       </c>
+      <c r="BO26" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5370,6 +5444,9 @@
       <c r="BN27" t="n">
         <v>0.97</v>
       </c>
+      <c r="BO27" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5572,6 +5649,9 @@
       <c r="BN28" t="n">
         <v>-44.09</v>
       </c>
+      <c r="BO28" t="n">
+        <v>-42.56</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5774,6 +5854,9 @@
       <c r="BN29" t="n">
         <v>-5.02</v>
       </c>
+      <c r="BO29" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5975,6 +6058,9 @@
       </c>
       <c r="BN30" t="n">
         <v>11.84</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>17.63</v>
       </c>
     </row>
     <row r="31">
@@ -6048,6 +6134,7 @@
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6250,6 +6337,9 @@
       <c r="BN32" t="n">
         <v>78.36</v>
       </c>
+      <c r="BO32" t="n">
+        <v>78.98999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6451,6 +6541,9 @@
       </c>
       <c r="BN33" t="n">
         <v>69.52</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>70.14</v>
       </c>
     </row>
     <row r="34">
@@ -6644,6 +6737,9 @@
       <c r="BN34" t="n">
         <v>0.11</v>
       </c>
+      <c r="BO34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6845,6 +6941,9 @@
       </c>
       <c r="BN35" t="n">
         <v>9.720000000000001</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -6918,6 +7017,7 @@
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
       <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7120,6 +7220,9 @@
       <c r="BN37" t="n">
         <v>-0.02</v>
       </c>
+      <c r="BO37" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7321,6 +7424,9 @@
       </c>
       <c r="BN38" t="n">
         <v>98.72</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>98.68000000000001</v>
       </c>
     </row>
   </sheetData>
